--- a/biology/Botanique/Chlorociboria_aeruginascens/Chlorociboria_aeruginascens.xlsx
+++ b/biology/Botanique/Chlorociboria_aeruginascens/Chlorociboria_aeruginascens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorociboria aeruginascens est une espèce de champignons ascomycètes de la famille des Helotiaceae.
-Il s'agit d'un champignon forestier lignicole saprophage, colonisant les troncs et les branches mortes fraîchement tombées des chênes, des hêtres et des bouleaux. Appelé pézize turquoise, il produit un pigment, la xylindéine (en), libéré par le mycélium. Le bois colonisé par tout le mycélium est ainsi teinté par ce pigment qui résiste très bien à la lumière, aussi est-il utilisé en ébénisterie (placage) et en marqueterie depuis la Renaissance italienne[2].
+Il s'agit d'un champignon forestier lignicole saprophage, colonisant les troncs et les branches mortes fraîchement tombées des chênes, des hêtres et des bouleaux. Appelé pézize turquoise, il produit un pigment, la xylindéine (en), libéré par le mycélium. Le bois colonisé par tout le mycélium est ainsi teinté par ce pigment qui résiste très bien à la lumière, aussi est-il utilisé en ébénisterie (placage) et en marqueterie depuis la Renaissance italienne.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Risque de confusion possible avec Chlorociboria aeruginosa, plus rare.
 </t>
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Autres noms vernaculaires français : Pézize turquoise, Pézize verdissante, Hélotie bleu vert.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 février 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 février 2016) :
 sous-espèce Chlorociboria aeruginascens subsp. australis</t>
         </is>
       </c>
